--- a/Topography/LaJara_TopoSurvey/UpReach_LongProfile.xlsx
+++ b/Topography/LaJara_TopoSurvey/UpReach_LongProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844FAB88-F315-4186-A7EC-480FA9CFF076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3441D7A-E82F-4E37-A112-28C25449A781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{6875A78A-EB74-4CCE-9079-1EDDD22DA4D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6875A78A-EB74-4CCE-9079-1EDDD22DA4D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,7 +473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -556,7 +556,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -919,304 +919,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
                 <c:pt idx="0">
-                  <c:v>2733.3449999999998</c:v>
+                  <c:v>2733.5150000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2732.67</c:v>
+                  <c:v>2732.8400000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2732.8599999999997</c:v>
+                  <c:v>2733.0300000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2732.8199999999997</c:v>
+                  <c:v>2732.9900000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2732.7750000000001</c:v>
+                  <c:v>2732.9450000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2732.87</c:v>
+                  <c:v>2733.0400000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2732.92</c:v>
+                  <c:v>2733.0900000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2732.9749999999999</c:v>
+                  <c:v>2733.1450000000009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2733.04</c:v>
+                  <c:v>2733.2100000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2733.0699999999997</c:v>
+                  <c:v>2733.2400000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2733.125</c:v>
+                  <c:v>2733.295000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2733.16</c:v>
+                  <c:v>2733.3300000000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2733.1749999999997</c:v>
+                  <c:v>2733.3450000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2733.415</c:v>
+                  <c:v>2733.5850000000009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2733.4</c:v>
+                  <c:v>2733.5700000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2733.4249999999997</c:v>
+                  <c:v>2733.5950000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2733.395</c:v>
+                  <c:v>2733.565000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2733.5549999999998</c:v>
+                  <c:v>2733.7250000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2733.4449999999997</c:v>
+                  <c:v>2733.6150000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2733.5699999999997</c:v>
+                  <c:v>2733.7400000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2733.71</c:v>
+                  <c:v>2733.880000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2733.7049999999999</c:v>
+                  <c:v>2733.8750000000009</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2733.66</c:v>
+                  <c:v>2733.8300000000008</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2733.5949999999998</c:v>
+                  <c:v>2733.7650000000008</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2733.7</c:v>
+                  <c:v>2733.8700000000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2733.8649999999998</c:v>
+                  <c:v>2734.0350000000008</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2733.87</c:v>
+                  <c:v>2734.0400000000009</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2733.8649999999998</c:v>
+                  <c:v>2734.0350000000008</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2734.0099999999998</c:v>
+                  <c:v>2734.1800000000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2733.9449999999997</c:v>
+                  <c:v>2734.1150000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2733.9949999999999</c:v>
+                  <c:v>2734.1650000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2734.1149999999998</c:v>
+                  <c:v>2734.2850000000008</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2734.1499999999996</c:v>
+                  <c:v>2734.3200000000006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2734.1749999999997</c:v>
+                  <c:v>2734.3450000000007</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2734.21</c:v>
+                  <c:v>2734.380000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2734.2599999999998</c:v>
+                  <c:v>2734.4300000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2734.2249999999999</c:v>
+                  <c:v>2734.3950000000009</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2734.375</c:v>
+                  <c:v>2734.545000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2734.6749999999997</c:v>
+                  <c:v>2734.8450000000007</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2734.4049999999997</c:v>
+                  <c:v>2734.5750000000007</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2734.39</c:v>
+                  <c:v>2734.5600000000009</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2734.8399999999997</c:v>
+                  <c:v>2735.0100000000007</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2734.91</c:v>
+                  <c:v>2735.0800000000008</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2734.855</c:v>
+                  <c:v>2735.025000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2734.83</c:v>
+                  <c:v>2735.0000000000009</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2735.06</c:v>
+                  <c:v>2735.2300000000009</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2734.9749999999999</c:v>
+                  <c:v>2735.1450000000009</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2734.99</c:v>
+                  <c:v>2735.1600000000008</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2735.1949999999997</c:v>
+                  <c:v>2735.3650000000007</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2735.1</c:v>
+                  <c:v>2735.2700000000009</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2735.0449999999996</c:v>
+                  <c:v>2735.2150000000006</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2735.29</c:v>
+                  <c:v>2735.4600000000009</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2735.2449999999999</c:v>
+                  <c:v>2735.4150000000009</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2735.29</c:v>
+                  <c:v>2735.4600000000009</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2735.2999999999997</c:v>
+                  <c:v>2735.4700000000007</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2735.31</c:v>
+                  <c:v>2735.4800000000009</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2735.9549999999999</c:v>
+                  <c:v>2736.1250000000009</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2735.9449999999997</c:v>
+                  <c:v>2736.1150000000007</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2735.9199999999996</c:v>
+                  <c:v>2736.0900000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2735.8649999999998</c:v>
+                  <c:v>2736.0350000000008</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2736.25</c:v>
+                  <c:v>2736.420000000001</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2736.27</c:v>
+                  <c:v>2736.440000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2736.2599999999998</c:v>
+                  <c:v>2736.4300000000007</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2736.395</c:v>
+                  <c:v>2736.565000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2736.3449999999998</c:v>
+                  <c:v>2736.5150000000008</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2736.5349999999999</c:v>
+                  <c:v>2736.7050000000008</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2736.4749999999999</c:v>
+                  <c:v>2736.6450000000009</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2736.44</c:v>
+                  <c:v>2736.610000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2736.5949999999998</c:v>
+                  <c:v>2736.7650000000008</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2736.6189999999997</c:v>
+                  <c:v>2736.7890000000007</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2736.63</c:v>
+                  <c:v>2736.8000000000011</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2736.5650000000001</c:v>
+                  <c:v>2736.735000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2736.5899999999997</c:v>
+                  <c:v>2736.7600000000007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2736.7449999999999</c:v>
+                  <c:v>2736.9150000000009</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2736.65</c:v>
+                  <c:v>2736.8200000000011</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2736.875</c:v>
+                  <c:v>2737.045000000001</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2736.7949999999996</c:v>
+                  <c:v>2736.9650000000006</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2736.97</c:v>
+                  <c:v>2737.1400000000008</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2737.0149999999999</c:v>
+                  <c:v>2737.1850000000009</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2737.0099999999998</c:v>
+                  <c:v>2737.1800000000007</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2737.0249999999996</c:v>
+                  <c:v>2737.1950000000006</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2737.2449999999999</c:v>
+                  <c:v>2737.4150000000009</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2737.1699999999996</c:v>
+                  <c:v>2737.3400000000006</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2737.08</c:v>
+                  <c:v>2737.2500000000009</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2737.2949999999996</c:v>
+                  <c:v>2737.4650000000006</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2737.29</c:v>
+                  <c:v>2737.4600000000009</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2737.5149999999999</c:v>
+                  <c:v>2737.6850000000009</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2737.4449999999997</c:v>
+                  <c:v>2737.6150000000007</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2737.62</c:v>
+                  <c:v>2737.7900000000009</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2737.5899999999997</c:v>
+                  <c:v>2737.7600000000007</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2737.6149999999998</c:v>
+                  <c:v>2737.7850000000008</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2737.6299999999997</c:v>
+                  <c:v>2737.8000000000006</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2738.0349999999999</c:v>
+                  <c:v>2738.2050000000008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2738.04</c:v>
+                  <c:v>2738.2100000000009</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2737.91</c:v>
+                  <c:v>2738.0800000000008</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2737.915</c:v>
+                  <c:v>2738.0850000000009</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2737.9399999999996</c:v>
+                  <c:v>2738.1100000000006</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2738.2349999999997</c:v>
+                  <c:v>2738.4050000000007</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2738.1949999999997</c:v>
+                  <c:v>2738.3650000000007</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2738.02</c:v>
+                  <c:v>2738.190000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1295,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="20182544"/>
@@ -1357,7 +1357,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="20169232"/>
@@ -1405,7 +1405,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2312,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64046064-0207-40E0-86BF-2B34A938C764}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2373,7 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="4">
-        <v>2733.3449999999998</v>
+        <v>2733.5150000000008</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>7</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="H3" s="9">
         <f>E3+B3</f>
-        <v>2735.12</v>
+        <v>2735.2900000000009</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2397,7 +2397,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5">
         <f>$H$3-C4</f>
-        <v>2732.67</v>
+        <v>2732.8400000000011</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>41</v>
@@ -2416,8 +2416,8 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E38" si="0">$H$3-C5</f>
-        <v>2732.8599999999997</v>
+        <f t="shared" ref="E5:E37" si="0">$H$3-C5</f>
+        <v>2733.0300000000007</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -2436,7 +2436,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>2732.8199999999997</v>
+        <v>2732.9900000000007</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -2455,7 +2455,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>2732.7750000000001</v>
+        <v>2732.9450000000011</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>38</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="J7">
         <f>H7-E7</f>
-        <v>0.16399999999975989</v>
+        <v>-6.0000000012223609E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>2732.87</v>
+        <v>2733.0400000000009</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -2523,7 +2523,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>2732.92</v>
+        <v>2733.0900000000011</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -2542,7 +2542,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>2732.9749999999999</v>
+        <v>2733.1450000000009</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
@@ -2579,7 +2579,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>2733.04</v>
+        <v>2733.2100000000009</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -2598,7 +2598,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>2733.0699999999997</v>
+        <v>2733.2400000000007</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -2617,7 +2617,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>2733.125</v>
+        <v>2733.295000000001</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -2654,7 +2654,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>2733.16</v>
+        <v>2733.3300000000008</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -2673,7 +2673,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>2733.1749999999997</v>
+        <v>2733.3450000000007</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>8</v>
@@ -2694,7 +2694,7 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>2733.415</v>
+        <v>2733.5850000000009</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>10</v>
@@ -2715,7 +2715,7 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>2733.4</v>
+        <v>2733.5700000000011</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
@@ -2752,7 +2752,7 @@
       <c r="D22" s="5"/>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>2733.4249999999997</v>
+        <v>2733.5950000000007</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
@@ -2771,7 +2771,7 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>2733.395</v>
+        <v>2733.565000000001</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
@@ -2790,7 +2790,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>2733.5549999999998</v>
+        <v>2733.7250000000008</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>11</v>
@@ -2811,7 +2811,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>2733.4449999999997</v>
+        <v>2733.6150000000007</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>12</v>
@@ -2832,7 +2832,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>2733.5699999999997</v>
+        <v>2733.7400000000007</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
@@ -2851,7 +2851,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>2733.71</v>
+        <v>2733.880000000001</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
@@ -2870,7 +2870,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>2733.7049999999999</v>
+        <v>2733.8750000000009</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
@@ -2889,7 +2889,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>2733.66</v>
+        <v>2733.8300000000008</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>42</v>
@@ -2910,7 +2910,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>2733.5949999999998</v>
+        <v>2733.7650000000008</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
@@ -2929,7 +2929,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>2733.7</v>
+        <v>2733.8700000000008</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
@@ -2948,7 +2948,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>2733.8649999999998</v>
+        <v>2734.0350000000008</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
@@ -2967,7 +2967,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5">
         <f t="shared" si="0"/>
-        <v>2733.87</v>
+        <v>2734.0400000000009</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5">
@@ -3004,7 +3004,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>2733.8649999999998</v>
+        <v>2734.0350000000008</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
@@ -3023,7 +3023,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>2734.0099999999998</v>
+        <v>2734.1800000000007</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>39</v>
@@ -3044,7 +3044,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>2733.9449999999997</v>
+        <v>2734.1150000000007</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="E38" s="5">
         <f>$H$3-D38</f>
-        <v>2733.9949999999999</v>
+        <v>2734.1650000000009</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="13">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="H38" s="9">
         <f>E38+B38</f>
-        <v>2737.5749999999998</v>
+        <v>2737.7450000000008</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5">
         <f>$H$38-C39</f>
-        <v>2734.1149999999998</v>
+        <v>2734.2850000000008</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5">
@@ -3105,8 +3105,8 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5">
-        <f t="shared" ref="E40:E77" si="2">$H$38-C40</f>
-        <v>2734.1499999999996</v>
+        <f t="shared" ref="E40:E76" si="2">$H$38-C40</f>
+        <v>2734.3200000000006</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>51</v>
@@ -3127,7 +3127,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>2734.1749999999997</v>
+        <v>2734.3450000000007</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5">
@@ -3146,7 +3146,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
-        <v>2734.21</v>
+        <v>2734.380000000001</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5">
@@ -3165,7 +3165,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5">
         <f t="shared" si="2"/>
-        <v>2734.2599999999998</v>
+        <v>2734.4300000000007</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5">
@@ -3184,7 +3184,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5">
         <f t="shared" si="2"/>
-        <v>2734.2249999999999</v>
+        <v>2734.3950000000009</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>13</v>
@@ -3205,7 +3205,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5">
         <f t="shared" si="2"/>
-        <v>2734.375</v>
+        <v>2734.545000000001</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>14</v>
@@ -3226,7 +3226,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5">
         <f t="shared" si="2"/>
-        <v>2734.6749999999997</v>
+        <v>2734.8450000000007</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>15</v>
@@ -3247,7 +3247,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5">
         <f t="shared" si="2"/>
-        <v>2734.4049999999997</v>
+        <v>2734.5750000000007</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5">
@@ -3266,7 +3266,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5">
         <f t="shared" si="2"/>
-        <v>2734.39</v>
+        <v>2734.5600000000009</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>13</v>
@@ -3287,7 +3287,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5">
         <f t="shared" si="2"/>
-        <v>2734.8399999999997</v>
+        <v>2735.0100000000007</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>14</v>
@@ -3308,7 +3308,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5">
         <f t="shared" si="2"/>
-        <v>2734.91</v>
+        <v>2735.0800000000008</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5">
@@ -3327,7 +3327,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5">
         <f t="shared" si="2"/>
-        <v>2734.855</v>
+        <v>2735.025000000001</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5">
@@ -3346,7 +3346,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5">
         <f t="shared" si="2"/>
-        <v>2734.83</v>
+        <v>2735.0000000000009</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>16</v>
@@ -3367,7 +3367,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5">
         <f t="shared" si="2"/>
-        <v>2735.06</v>
+        <v>2735.2300000000009</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>14</v>
@@ -3388,7 +3388,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5">
         <f t="shared" si="2"/>
-        <v>2734.9749999999999</v>
+        <v>2735.1450000000009</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5">
@@ -3407,7 +3407,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5">
         <f t="shared" si="2"/>
-        <v>2734.99</v>
+        <v>2735.1600000000008</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>13</v>
@@ -3428,7 +3428,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>2735.1949999999997</v>
+        <v>2735.3650000000007</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5">
@@ -3447,7 +3447,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5">
         <f t="shared" si="2"/>
-        <v>2735.1</v>
+        <v>2735.2700000000009</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5">
@@ -3466,7 +3466,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5">
         <f t="shared" si="2"/>
-        <v>2735.0449999999996</v>
+        <v>2735.2150000000006</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5">
@@ -3485,7 +3485,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5">
         <f t="shared" si="2"/>
-        <v>2735.29</v>
+        <v>2735.4600000000009</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
@@ -3504,7 +3504,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5">
         <f t="shared" si="2"/>
-        <v>2735.2449999999999</v>
+        <v>2735.4150000000009</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5">
@@ -3577,7 +3577,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5">
         <f t="shared" si="2"/>
-        <v>2735.29</v>
+        <v>2735.4600000000009</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5">
@@ -3596,7 +3596,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5">
         <f t="shared" si="2"/>
-        <v>2735.2999999999997</v>
+        <v>2735.4700000000007</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
@@ -3615,7 +3615,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5">
         <f t="shared" si="2"/>
-        <v>2735.31</v>
+        <v>2735.4800000000009</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>17</v>
@@ -3636,7 +3636,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5">
         <f t="shared" si="2"/>
-        <v>2735.9549999999999</v>
+        <v>2736.1250000000009</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>18</v>
@@ -3657,7 +3657,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5">
         <f t="shared" si="2"/>
-        <v>2735.9449999999997</v>
+        <v>2736.1150000000007</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5">
@@ -3676,7 +3676,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5">
         <f t="shared" si="2"/>
-        <v>2735.9199999999996</v>
+        <v>2736.0900000000006</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5">
@@ -3749,7 +3749,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5">
         <f t="shared" si="2"/>
-        <v>2735.8649999999998</v>
+        <v>2736.0350000000008</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
@@ -3768,7 +3768,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5">
         <f t="shared" si="2"/>
-        <v>2736.25</v>
+        <v>2736.420000000001</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5">
@@ -3787,7 +3787,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5">
         <f t="shared" si="2"/>
-        <v>2736.27</v>
+        <v>2736.440000000001</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5">
@@ -3806,7 +3806,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5">
         <f t="shared" si="2"/>
-        <v>2736.2599999999998</v>
+        <v>2736.4300000000007</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5">
@@ -3824,7 +3824,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5">
         <f>$H$38-C77</f>
-        <v>2736.395</v>
+        <v>2736.565000000001</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="E78" s="5">
         <f>$H$38-D78</f>
-        <v>2736.3449999999998</v>
+        <v>2736.5150000000008</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="13">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="H78" s="9">
         <f>E78+B78</f>
-        <v>2739.7449999999999</v>
+        <v>2739.9150000000009</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5">
         <f>$H$78-C79</f>
-        <v>2736.5349999999999</v>
+        <v>2736.7050000000008</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5">
@@ -3886,8 +3886,8 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5">
-        <f t="shared" ref="E80:E90" si="4">$H$78-C80</f>
-        <v>2736.4749999999999</v>
+        <f t="shared" ref="E80:E89" si="4">$H$78-C80</f>
+        <v>2736.6450000000009</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5">
@@ -3906,7 +3906,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5">
         <f t="shared" si="4"/>
-        <v>2736.44</v>
+        <v>2736.610000000001</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>20</v>
@@ -3927,7 +3927,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5">
         <f t="shared" si="4"/>
-        <v>2736.5949999999998</v>
+        <v>2736.7650000000008</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>21</v>
@@ -3948,7 +3948,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5">
         <f t="shared" si="4"/>
-        <v>2736.6189999999997</v>
+        <v>2736.7890000000007</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>53</v>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="J83">
         <f>H83-E83</f>
-        <v>0.12200000000029831</v>
+        <v>-4.800000000068394E-2</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3997,7 +3997,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="5">
         <f t="shared" si="4"/>
-        <v>2736.63</v>
+        <v>2736.8000000000011</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5">
@@ -4016,7 +4016,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="5">
         <f t="shared" si="4"/>
-        <v>2736.5650000000001</v>
+        <v>2736.735000000001</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
@@ -4035,7 +4035,7 @@
       <c r="D87" s="5"/>
       <c r="E87" s="5">
         <f t="shared" si="4"/>
-        <v>2736.5899999999997</v>
+        <v>2736.7600000000007</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>20</v>
@@ -4056,7 +4056,7 @@
       <c r="D88" s="5"/>
       <c r="E88" s="5">
         <f t="shared" si="4"/>
-        <v>2736.7449999999999</v>
+        <v>2736.9150000000009</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>25</v>
@@ -4077,7 +4077,7 @@
       <c r="D89" s="5"/>
       <c r="E89" s="5">
         <f t="shared" si="4"/>
-        <v>2736.65</v>
+        <v>2736.8200000000011</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>26</v>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E90" s="5">
         <f>$H$78-D90</f>
-        <v>2736.875</v>
+        <v>2737.045000000001</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="13">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H90" s="9">
         <f>E90+B90</f>
-        <v>2740.22</v>
+        <v>2740.3900000000008</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="5">
         <f>$H$90-C91</f>
-        <v>2736.7949999999996</v>
+        <v>2736.9650000000006</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>13</v>
@@ -4143,7 +4143,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5">
         <f t="shared" ref="E92:E116" si="5">$H$90-C92</f>
-        <v>2736.97</v>
+        <v>2737.1400000000008</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>18</v>
@@ -4164,7 +4164,7 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5">
         <f t="shared" si="5"/>
-        <v>2737.0149999999999</v>
+        <v>2737.1850000000009</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>48</v>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="J93">
         <f>H93-E93</f>
-        <v>9.9000000000160071E-2</v>
+        <v>-7.1000000000822183E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
       <c r="D94" s="5"/>
       <c r="E94" s="5">
         <f t="shared" si="5"/>
-        <v>2737.0099999999998</v>
+        <v>2737.1800000000007</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5">
@@ -4214,7 +4214,7 @@
       <c r="D95" s="5"/>
       <c r="E95" s="5">
         <f t="shared" si="5"/>
-        <v>2737.0249999999996</v>
+        <v>2737.1950000000006</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>13</v>
@@ -4235,7 +4235,7 @@
       <c r="D96" s="5"/>
       <c r="E96" s="5">
         <f t="shared" si="5"/>
-        <v>2737.2449999999999</v>
+        <v>2737.4150000000009</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>25</v>
@@ -4256,7 +4256,7 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5">
         <f t="shared" si="5"/>
-        <v>2737.1699999999996</v>
+        <v>2737.3400000000006</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5">
@@ -4275,7 +4275,7 @@
       <c r="D98" s="5"/>
       <c r="E98" s="5">
         <f t="shared" si="5"/>
-        <v>2737.08</v>
+        <v>2737.2500000000009</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>20</v>
@@ -4296,7 +4296,7 @@
       <c r="D99" s="5"/>
       <c r="E99" s="5">
         <f t="shared" si="5"/>
-        <v>2737.2949999999996</v>
+        <v>2737.4650000000006</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>18</v>
@@ -4317,7 +4317,7 @@
       <c r="D100" s="5"/>
       <c r="E100" s="5">
         <f t="shared" si="5"/>
-        <v>2737.29</v>
+        <v>2737.4600000000009</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>27</v>
@@ -4338,7 +4338,7 @@
       <c r="D101" s="5"/>
       <c r="E101" s="5">
         <f t="shared" si="5"/>
-        <v>2737.5149999999999</v>
+        <v>2737.6850000000009</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>28</v>
@@ -4359,7 +4359,7 @@
       <c r="D102" s="5"/>
       <c r="E102" s="5">
         <f t="shared" si="5"/>
-        <v>2737.4449999999997</v>
+        <v>2737.6150000000007</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>13</v>
@@ -4380,7 +4380,7 @@
       <c r="D103" s="5"/>
       <c r="E103" s="5">
         <f t="shared" si="5"/>
-        <v>2737.62</v>
+        <v>2737.7900000000009</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5">
@@ -4399,7 +4399,7 @@
       <c r="D104" s="5"/>
       <c r="E104" s="5">
         <f t="shared" si="5"/>
-        <v>2737.5899999999997</v>
+        <v>2737.7600000000007</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5">
@@ -4418,7 +4418,7 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5">
         <f t="shared" si="5"/>
-        <v>2737.6149999999998</v>
+        <v>2737.7850000000008</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5">
@@ -4437,7 +4437,7 @@
       <c r="D106" s="5"/>
       <c r="E106" s="5">
         <f t="shared" si="5"/>
-        <v>2737.6299999999997</v>
+        <v>2737.8000000000006</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>20</v>
@@ -4458,7 +4458,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="5">
         <f t="shared" si="5"/>
-        <v>2738.0349999999999</v>
+        <v>2738.2050000000008</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>31</v>
@@ -4479,7 +4479,7 @@
       <c r="D108" s="5"/>
       <c r="E108" s="5">
         <f t="shared" si="5"/>
-        <v>2738.04</v>
+        <v>2738.2100000000009</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>32</v>
@@ -4500,7 +4500,7 @@
       <c r="D109" s="5"/>
       <c r="E109" s="5">
         <f t="shared" si="5"/>
-        <v>2737.91</v>
+        <v>2738.0800000000008</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>26</v>
@@ -4521,7 +4521,7 @@
       <c r="D110" s="5"/>
       <c r="E110" s="5">
         <f t="shared" si="5"/>
-        <v>2737.915</v>
+        <v>2738.0850000000009</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="5">
@@ -4540,7 +4540,7 @@
       <c r="D111" s="5"/>
       <c r="E111" s="5">
         <f t="shared" si="5"/>
-        <v>2737.9399999999996</v>
+        <v>2738.1100000000006</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>13</v>
@@ -4561,7 +4561,7 @@
       <c r="D112" s="5"/>
       <c r="E112" s="5">
         <f t="shared" si="5"/>
-        <v>2738.2349999999997</v>
+        <v>2738.4050000000007</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>18</v>
@@ -4582,7 +4582,7 @@
       <c r="D113" s="5"/>
       <c r="E113" s="5">
         <f t="shared" si="5"/>
-        <v>2738.1949999999997</v>
+        <v>2738.3650000000007</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="5">
@@ -4637,7 +4637,7 @@
       <c r="D116" s="5"/>
       <c r="E116" s="5">
         <f t="shared" si="5"/>
-        <v>2738.02</v>
+        <v>2738.190000000001</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="5">

--- a/Topography/LaJara_TopoSurvey/UpReach_LongProfile.xlsx
+++ b/Topography/LaJara_TopoSurvey/UpReach_LongProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3441D7A-E82F-4E37-A112-28C25449A781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2B69E-BB53-459E-9206-E2AF88470AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6875A78A-EB74-4CCE-9079-1EDDD22DA4D6}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{6875A78A-EB74-4CCE-9079-1EDDD22DA4D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2312,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64046064-0207-40E0-86BF-2B34A938C764}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Topography/LaJara_TopoSurvey/UpReach_LongProfile.xlsx
+++ b/Topography/LaJara_TopoSurvey/UpReach_LongProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Topography\LaJara_TopoSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2B69E-BB53-459E-9206-E2AF88470AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EDB087-A495-4498-88DF-103348C67675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{6875A78A-EB74-4CCE-9079-1EDDD22DA4D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6875A78A-EB74-4CCE-9079-1EDDD22DA4D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +422,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2312,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64046064-0207-40E0-86BF-2B34A938C764}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,10 +3531,10 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="16">
         <f t="shared" si="1"/>
         <v>31.4</v>
       </c>
@@ -3540,10 +3549,10 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="16">
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
@@ -3558,10 +3567,10 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="16">
         <f t="shared" si="1"/>
         <v>31.700000000000003</v>
       </c>
@@ -3579,8 +3588,8 @@
         <f t="shared" si="2"/>
         <v>2735.4600000000009</v>
       </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5">
+      <c r="F64" s="16"/>
+      <c r="G64" s="16">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -3598,8 +3607,8 @@
         <f t="shared" si="2"/>
         <v>2735.4700000000007</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5">
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -3617,10 +3626,10 @@
         <f t="shared" si="2"/>
         <v>2735.4800000000009</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="16">
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
@@ -3638,10 +3647,10 @@
         <f t="shared" si="2"/>
         <v>2736.1250000000009</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="16">
         <f t="shared" si="1"/>
         <v>34.5</v>
       </c>
@@ -3659,8 +3668,8 @@
         <f t="shared" si="2"/>
         <v>2736.1150000000007</v>
       </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5">
+      <c r="F68" s="16"/>
+      <c r="G68" s="16">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -3678,8 +3687,8 @@
         <f t="shared" si="2"/>
         <v>2736.0900000000006</v>
       </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5">
+      <c r="F69" s="16"/>
+      <c r="G69" s="16">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -3694,10 +3703,10 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="16">
         <f t="shared" ref="G70:G116" si="3">A70-32</f>
         <v>35.799999999999997</v>
       </c>
@@ -3712,10 +3721,10 @@
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="16">
         <f t="shared" si="3"/>
         <v>36.200000000000003</v>
       </c>
@@ -3730,10 +3739,10 @@
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="16">
         <f t="shared" si="3"/>
         <v>36.900000000000006</v>
       </c>
